--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.045828333333333</v>
+        <v>0.6162230000000001</v>
       </c>
       <c r="H2">
-        <v>3.137485</v>
+        <v>1.848669</v>
       </c>
       <c r="I2">
-        <v>0.0274735881233672</v>
+        <v>0.01637276483811898</v>
       </c>
       <c r="J2">
-        <v>0.0274735881233672</v>
+        <v>0.01637276483811898</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N2">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O2">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P2">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q2">
-        <v>6.407229982956112</v>
+        <v>5.608735009469667</v>
       </c>
       <c r="R2">
-        <v>57.665069846605</v>
+        <v>50.478615085227</v>
       </c>
       <c r="S2">
-        <v>0.002970166364836211</v>
+        <v>0.002498508654392173</v>
       </c>
       <c r="T2">
-        <v>0.002970166364836211</v>
+        <v>0.002498508654392173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.045828333333333</v>
+        <v>0.6162230000000001</v>
       </c>
       <c r="H3">
-        <v>3.137485</v>
+        <v>1.848669</v>
       </c>
       <c r="I3">
-        <v>0.0274735881233672</v>
+        <v>0.01637276483811898</v>
       </c>
       <c r="J3">
-        <v>0.0274735881233672</v>
+        <v>0.01637276483811898</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.212106</v>
       </c>
       <c r="O3">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P3">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q3">
-        <v>37.37515271037889</v>
+        <v>22.02218853187934</v>
       </c>
       <c r="R3">
-        <v>336.37637439341</v>
+        <v>198.199696786914</v>
       </c>
       <c r="S3">
-        <v>0.01732580565334527</v>
+        <v>0.009810167273486367</v>
       </c>
       <c r="T3">
-        <v>0.01732580565334527</v>
+        <v>0.009810167273486367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.045828333333333</v>
+        <v>0.6162230000000001</v>
       </c>
       <c r="H4">
-        <v>3.137485</v>
+        <v>1.848669</v>
       </c>
       <c r="I4">
-        <v>0.0274735881233672</v>
+        <v>0.01637276483811898</v>
       </c>
       <c r="J4">
-        <v>0.0274735881233672</v>
+        <v>0.01637276483811898</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>44.415097</v>
       </c>
       <c r="O4">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P4">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q4">
-        <v>15.48352229011611</v>
+        <v>9.123201439543669</v>
       </c>
       <c r="R4">
-        <v>139.351700611045</v>
+        <v>82.10881295589301</v>
       </c>
       <c r="S4">
-        <v>0.00717761610518572</v>
+        <v>0.004064088910240441</v>
       </c>
       <c r="T4">
-        <v>0.00717761610518572</v>
+        <v>0.00406408891024044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>87.302899</v>
       </c>
       <c r="I5">
-        <v>0.7644734203038186</v>
+        <v>0.7731994397120591</v>
       </c>
       <c r="J5">
-        <v>0.7644734203038187</v>
+        <v>0.7731994397120592</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N5">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O5">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P5">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q5">
-        <v>178.2860323067008</v>
+        <v>264.8710104672574</v>
       </c>
       <c r="R5">
-        <v>1604.574290760307</v>
+        <v>2383.839094205317</v>
       </c>
       <c r="S5">
-        <v>0.08264713111377198</v>
+        <v>0.1179914028444387</v>
       </c>
       <c r="T5">
-        <v>0.08264713111377199</v>
+        <v>0.1179914028444388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>87.302899</v>
       </c>
       <c r="I6">
-        <v>0.7644734203038186</v>
+        <v>0.7731994397120591</v>
       </c>
       <c r="J6">
-        <v>0.7644734203038187</v>
+        <v>0.7731994397120592</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.212106</v>
       </c>
       <c r="O6">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P6">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q6">
         <v>1039.991962410588</v>
@@ -818,10 +818,10 @@
         <v>9359.927661695294</v>
       </c>
       <c r="S6">
-        <v>0.4821036789172318</v>
+        <v>0.4632825252385828</v>
       </c>
       <c r="T6">
-        <v>0.4821036789172319</v>
+        <v>0.4632825252385828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>87.302899</v>
       </c>
       <c r="I7">
-        <v>0.7644734203038186</v>
+        <v>0.7731994397120591</v>
       </c>
       <c r="J7">
-        <v>0.7644734203038187</v>
+        <v>0.7731994397120592</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>44.415097</v>
       </c>
       <c r="O7">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P7">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q7">
         <v>430.8407474962448</v>
@@ -880,10 +880,10 @@
         <v>3877.566727466203</v>
       </c>
       <c r="S7">
-        <v>0.1997226102728148</v>
+        <v>0.1919255116290375</v>
       </c>
       <c r="T7">
-        <v>0.1997226102728148</v>
+        <v>0.1919255116290375</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.919887</v>
+        <v>7.919886999999999</v>
       </c>
       <c r="H8">
         <v>23.759661</v>
       </c>
       <c r="I8">
-        <v>0.2080529915728142</v>
+        <v>0.2104277954498219</v>
       </c>
       <c r="J8">
-        <v>0.2080529915728142</v>
+        <v>0.2104277954498219</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N8">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O8">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P8">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q8">
-        <v>48.52090522953034</v>
+        <v>72.08518261724032</v>
       </c>
       <c r="R8">
-        <v>436.688147065773</v>
+        <v>648.7666435551629</v>
       </c>
       <c r="S8">
-        <v>0.02249258432856593</v>
+        <v>0.03211159955293467</v>
       </c>
       <c r="T8">
-        <v>0.02249258432856594</v>
+        <v>0.03211159955293467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.919887</v>
+        <v>7.919886999999999</v>
       </c>
       <c r="H9">
         <v>23.759661</v>
       </c>
       <c r="I9">
-        <v>0.2080529915728142</v>
+        <v>0.2104277954498219</v>
       </c>
       <c r="J9">
-        <v>0.2080529915728142</v>
+        <v>0.2104277954498219</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.212106</v>
       </c>
       <c r="O9">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P9">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q9">
         <v>283.0359215173407</v>
@@ -1004,10 +1004,10 @@
         <v>2547.323293656066</v>
       </c>
       <c r="S9">
-        <v>0.1312054938510836</v>
+        <v>0.1260832787109701</v>
       </c>
       <c r="T9">
-        <v>0.1312054938510837</v>
+        <v>0.1260832787109701</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.919887</v>
+        <v>7.919886999999999</v>
       </c>
       <c r="H10">
         <v>23.759661</v>
       </c>
       <c r="I10">
-        <v>0.2080529915728142</v>
+        <v>0.2104277954498219</v>
       </c>
       <c r="J10">
-        <v>0.2080529915728142</v>
+        <v>0.2104277954498219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>44.415097</v>
       </c>
       <c r="O10">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P10">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q10">
-        <v>117.2541831113464</v>
+        <v>117.2541831113463</v>
       </c>
       <c r="R10">
         <v>1055.287648002117</v>
       </c>
       <c r="S10">
-        <v>0.0543549133931646</v>
+        <v>0.05223291718591715</v>
       </c>
       <c r="T10">
-        <v>0.05435491339316461</v>
+        <v>0.05223291718591715</v>
       </c>
     </row>
   </sheetData>
